--- a/examples/metrics/classification_report_famille.xlsx
+++ b/examples/metrics/classification_report_famille.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,10 +495,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8934010152284264</v>
+        <v>0.7411167512690355</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9436997319034852</v>
+        <v>0.8513119533527697</v>
       </c>
       <c r="E2" t="n">
         <v>197</v>
@@ -564,7 +564,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Compotes</t>
+          <t>Cereales pour le petit dejeuner</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -583,7 +583,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Jus et nectars</t>
+          <t>Chocolat et produits chocolates</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -602,7 +602,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Panification croustillante et moelleuse</t>
+          <t>Compotes</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -621,7 +621,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Plats cuisines ambiants</t>
+          <t>Jus et nectars</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -640,7 +640,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Produits laitiers et desserts frais</t>
+          <t>Laits infantiles</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -659,57 +659,133 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>Panification croustillante et moelleuse</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8934010152284264</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8934010152284264</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8934010152284264</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8934010152284264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>macro avg</t>
+          <t>Plats cuisines ambiants</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09926677946982515</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1048555257670539</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>Plats cuisines frais</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Produits laitiers et desserts frais</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7411167512690355</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7411167512690355</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7411167512690355</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7411167512690355</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05700898086684889</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.06548553487328998</v>
+      </c>
+      <c r="E16" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>weighted avg</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8934010152284264</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.9436997319034852</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7411167512690355</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8513119533527697</v>
+      </c>
+      <c r="E17" t="n">
         <v>197</v>
       </c>
     </row>
@@ -724,7 +800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,7 +833,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Biscuits et gateaux industriels</t>
+          <t>Aliments infantiles de diversification</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -776,45 +852,45 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Compotes</t>
+          <t>Biscuits et gateaux industriels</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9699453551912568</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9847434119278778</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Confiseries</t>
+          <t>Compotes</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.9890710382513661</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.9945054945054945</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Confitures</t>
+          <t>Produits laitiers et desserts frais</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -833,76 +909,57 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Jus et nectars</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.9890710382513661</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.9890710382513661</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.9890710382513661</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.9890710382513661</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9699453551912568</v>
+        <v>0.25</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9699453551912568</v>
+        <v>0.2472677595628415</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9699453551912568</v>
+        <v>0.2486263736263736</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9699453551912568</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>macro avg</t>
+          <t>weighted avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1939890710382514</v>
+        <v>0.9890710382513661</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1969486823855756</v>
+        <v>0.9945054945054945</v>
       </c>
       <c r="E8" t="n">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>weighted avg</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9699453551912568</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9847434119278777</v>
-      </c>
-      <c r="E9" t="n">
         <v>366</v>
       </c>
     </row>
@@ -917,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,7 +1007,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Aliments infantiles de diversification</t>
+          <t>Biscuits et gateaux industriels</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -969,7 +1026,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscuits et gateaux industriels</t>
+          <t>Chocolat et produits chocolates</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -988,7 +1045,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Chocolat et produits chocolates</t>
+          <t>Compotes</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1014,10 +1071,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9762845849802372</v>
+        <v>0.9644268774703557</v>
       </c>
       <c r="D5" t="n">
-        <v>0.988</v>
+        <v>0.9818913480885312</v>
       </c>
       <c r="E5" t="n">
         <v>253</v>
@@ -1026,7 +1083,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Sirops et boissons concentrees a diluer</t>
+          <t>Jus et nectars</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1045,57 +1102,76 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>Sirops et boissons concentrees a diluer</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9762845849802372</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9762845849802372</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9762845849802372</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9762845849802372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>macro avg</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2</v>
+        <v>0.9644268774703557</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1952569169960474</v>
+        <v>0.9644268774703557</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1976</v>
+        <v>0.9644268774703557</v>
       </c>
       <c r="E8" t="n">
-        <v>253</v>
+        <v>0.9644268774703557</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.160737812911726</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1636485580147552</v>
+      </c>
+      <c r="E9" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>weighted avg</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9762845849802372</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.988</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9644268774703557</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9818913480885312</v>
+      </c>
+      <c r="E10" t="n">
         <v>253</v>
       </c>
     </row>
@@ -1143,39 +1219,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Confitures</t>
+          <t>Compotes</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9960474308300395</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.998019801980198</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Jus et nectars</t>
+          <t>Confitures</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.9960474308300395</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.998019801980198</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4">
@@ -1279,7 +1355,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Boissons Rafraichissantes Sans Alcool</t>
+          <t>Cereales pour le petit dejeuner</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1343,10 +1419,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D5" t="n">
-        <v>0.958904109589041</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="E5" t="n">
         <v>114</v>
@@ -1378,16 +1454,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9298245614035088</v>
       </c>
     </row>
     <row r="8">
@@ -1400,10 +1476,10 @@
         <v>0.2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1859649122807017</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1917808219178082</v>
+        <v>0.1927272727272727</v>
       </c>
       <c r="E8" t="n">
         <v>114</v>
@@ -1419,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D9" t="n">
-        <v>0.958904109589041</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="E9" t="n">
         <v>114</v>
@@ -1439,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1510,7 +1586,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Plats cuisines frais</t>
+          <t>Produits traiteurs frais</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1529,76 +1605,57 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Produits laitiers et desserts frais</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.9881656804733728</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9881656804733728</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9881656804733728</v>
+        <v>0.3293885601577909</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9881656804733728</v>
+        <v>0.3313492063492064</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9881656804733728</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>macro avg</t>
+          <t>weighted avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2470414201183432</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2485119047619048</v>
+        <v>0.9940476190476192</v>
       </c>
       <c r="E7" t="n">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>weighted avg</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9881656804733728</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9940476190476192</v>
-      </c>
-      <c r="E8" t="n">
         <v>338</v>
       </c>
     </row>
@@ -1653,10 +1710,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9879336349924586</v>
+        <v>0.9984917043740573</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9939301972685888</v>
+        <v>0.9992452830188679</v>
       </c>
       <c r="E2" t="n">
         <v>663</v>
@@ -1688,16 +1745,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9879336349924586</v>
+        <v>0.9984917043740573</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9879336349924586</v>
+        <v>0.9984917043740573</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9879336349924586</v>
+        <v>0.9984917043740573</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9879336349924586</v>
+        <v>0.9984917043740573</v>
       </c>
     </row>
     <row r="5">
@@ -1710,10 +1767,10 @@
         <v>0.5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4939668174962293</v>
+        <v>0.4992458521870287</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4969650986342944</v>
+        <v>0.499622641509434</v>
       </c>
       <c r="E5" t="n">
         <v>663</v>
@@ -1729,10 +1786,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9879336349924586</v>
+        <v>0.9984917043740573</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9939301972685888</v>
+        <v>0.9992452830188678</v>
       </c>
       <c r="E6" t="n">
         <v>663</v>
@@ -1782,7 +1839,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Aliments infantiles de diversification</t>
+          <t>Boissons Rafraichissantes Sans Alcool</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1801,7 +1858,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Boissons Rafraichissantes Sans Alcool</t>
+          <t>Compotes</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1827,10 +1884,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9897750511247444</v>
+        <v>0.9938650306748467</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9948612538540597</v>
+        <v>0.9969230769230769</v>
       </c>
       <c r="E4" t="n">
         <v>489</v>
@@ -1862,16 +1919,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9897750511247444</v>
+        <v>0.9938650306748467</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9897750511247444</v>
+        <v>0.9938650306748467</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9897750511247444</v>
+        <v>0.9938650306748467</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9897750511247444</v>
+        <v>0.9938650306748467</v>
       </c>
     </row>
     <row r="7">
@@ -1884,10 +1941,10 @@
         <v>0.25</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2474437627811861</v>
+        <v>0.2484662576687117</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2487153134635149</v>
+        <v>0.2492307692307692</v>
       </c>
       <c r="E7" t="n">
         <v>489</v>
@@ -1903,10 +1960,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9897750511247444</v>
+        <v>0.9938650306748467</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9948612538540597</v>
+        <v>0.996923076923077</v>
       </c>
       <c r="E8" t="n">
         <v>489</v>
@@ -2209,7 +2266,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Aperitifs a croquer</t>
+          <t>Aliments infantiles de diversification</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2228,7 +2285,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscuits et gateaux industriels</t>
+          <t>Aperitifs a croquer</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2247,7 +2304,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Bouillons et potages</t>
+          <t>Biscuits et gateaux industriels</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2292,10 +2349,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9782923299565847</v>
+        <v>0.975397973950796</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9890270665691295</v>
+        <v>0.9875457875457875</v>
       </c>
       <c r="E6" t="n">
         <v>691</v>
@@ -2327,16 +2384,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9782923299565847</v>
+        <v>0.975397973950796</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9782923299565847</v>
+        <v>0.975397973950796</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9782923299565847</v>
+        <v>0.975397973950796</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9782923299565847</v>
+        <v>0.975397973950796</v>
       </c>
     </row>
     <row r="9">
@@ -2349,10 +2406,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1630487216594308</v>
+        <v>0.1625663289917993</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1648378444281882</v>
+        <v>0.1645909645909646</v>
       </c>
       <c r="E9" t="n">
         <v>691</v>
@@ -2368,10 +2425,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9782923299565847</v>
+        <v>0.975397973950796</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9890270665691295</v>
+        <v>0.9875457875457875</v>
       </c>
       <c r="E10" t="n">
         <v>691</v>
@@ -2388,7 +2445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2428,10 +2485,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9435736677115988</v>
+        <v>0.9561128526645768</v>
       </c>
       <c r="D2" t="n">
-        <v>0.970967741935484</v>
+        <v>0.9775641025641025</v>
       </c>
       <c r="E2" t="n">
         <v>319</v>
@@ -2459,7 +2516,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Compotes</t>
+          <t>Panification croustillante et moelleuse</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2478,7 +2535,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Panification croustillante et moelleuse</t>
+          <t>Plats cuisines ambiants</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2497,95 +2554,57 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Plats cuisines ambiants</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.9561128526645768</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.9561128526645768</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.9561128526645768</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.9561128526645768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Sauces condimentaires</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.2390282131661442</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.2443910256410256</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>weighted avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9435736677115988</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9435736677115988</v>
+        <v>0.9561128526645768</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9435736677115988</v>
+        <v>0.9775641025641026</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9435736677115988</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1572622779519331</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1618279569892473</v>
-      </c>
-      <c r="E9" t="n">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>weighted avg</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9435736677115988</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9709677419354839</v>
-      </c>
-      <c r="E10" t="n">
         <v>319</v>
       </c>
     </row>
@@ -2600,7 +2619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2633,7 +2652,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Aperitifs a croquer</t>
+          <t>Bouillons et potages</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2652,26 +2671,26 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Bouillons et potages</t>
+          <t>Plats cuisines ambiants</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.9883103081827843</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.9941207910208444</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Cereales pour le petit dejeuner</t>
+          <t>Produits transformes a base de pomme de terre</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2690,7 +2709,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Charcuterie</t>
+          <t>Sauces chaudes</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2709,36 +2728,36 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Panification croustillante et moelleuse</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.9883103081827843</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.9883103081827843</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.9883103081827843</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.9883103081827843</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Plats cuisines ambiants</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9861849096705633</v>
+        <v>0.2470775770456961</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9930444087747459</v>
+        <v>0.2485301977552111</v>
       </c>
       <c r="E7" t="n">
         <v>941</v>
@@ -2747,95 +2766,19 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Produits transformes a base de pomme de terre</t>
+          <t>weighted avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.9883103081827843</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.9941207910208444</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Sauces chaudes</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9861849096705633</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9861849096705633</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9861849096705633</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9861849096705633</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1232731137088204</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1241305510968432</v>
-      </c>
-      <c r="E11" t="n">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>weighted avg</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9861849096705633</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.9930444087747458</v>
-      </c>
-      <c r="E12" t="n">
         <v>941</v>
       </c>
     </row>
@@ -2902,39 +2845,39 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Plats cuisines frais</t>
+          <t>Fromages</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9791666666666666</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9894736842105264</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Produits laitiers et desserts frais</t>
+          <t>Plats cuisines frais</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.9675925925925926</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.9835294117647059</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5">
@@ -2963,16 +2906,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9675925925925926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9675925925925926</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9675925925925926</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9675925925925926</v>
       </c>
     </row>
     <row r="7">
@@ -2985,10 +2928,10 @@
         <v>0.25</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2447916666666667</v>
+        <v>0.2418981481481481</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2473684210526316</v>
+        <v>0.2458823529411765</v>
       </c>
       <c r="E7" t="n">
         <v>432</v>
@@ -3004,10 +2947,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9675925925925926</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9894736842105263</v>
+        <v>0.9835294117647059</v>
       </c>
       <c r="E8" t="n">
         <v>432</v>
@@ -3064,10 +3007,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9890939597315436</v>
+        <v>0.9916107382550335</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9945170814002531</v>
+        <v>0.9957877000842459</v>
       </c>
       <c r="E2" t="n">
         <v>1192</v>
@@ -3118,16 +3061,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9890939597315436</v>
+        <v>0.9916107382550335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9890939597315436</v>
+        <v>0.9916107382550335</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9890939597315436</v>
+        <v>0.9916107382550335</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9890939597315436</v>
+        <v>0.9916107382550335</v>
       </c>
     </row>
     <row r="6">
@@ -3140,10 +3083,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3296979865771812</v>
+        <v>0.3305369127516778</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3315056938000844</v>
+        <v>0.3319292333614153</v>
       </c>
       <c r="E6" t="n">
         <v>1192</v>
@@ -3159,10 +3102,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9890939597315436</v>
+        <v>0.9916107382550335</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9945170814002531</v>
+        <v>0.9957877000842458</v>
       </c>
       <c r="E7" t="n">
         <v>1192</v>
@@ -3179,7 +3122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3212,7 +3155,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Biscuits et gateaux industriels</t>
+          <t>Aliments infantiles de diversification</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3231,7 +3174,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Chocolat et produits chocolates</t>
+          <t>Biscuits et gateaux industriels</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3250,26 +3193,26 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Preparations pour desserts</t>
+          <t>Confiseries</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9019607843137255</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9484536082474228</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Produits laitiers et desserts frais</t>
+          <t>Confitures</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3288,76 +3231,95 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Produits traiteurs frais</t>
+          <t>Preparations pour desserts</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.9591836734693878</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>Produits traiteurs frais</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9019607843137255</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9019607843137255</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9019607843137255</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9019607843137255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>macro avg</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1803921568627451</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1896907216494846</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="E8" t="n">
-        <v>102</v>
+        <v>0.9215686274509803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.15359477124183</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1598639455782313</v>
+      </c>
+      <c r="E9" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>weighted avg</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9019607843137255</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9484536082474228</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9215686274509803</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9591836734693878</v>
+      </c>
+      <c r="E10" t="n">
         <v>102</v>
       </c>
     </row>
@@ -3405,7 +3367,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Plats cuisines frais</t>
+          <t>Compotes</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3424,39 +3386,39 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Produits laitiers et desserts frais</t>
+          <t>Fromages</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9983402489626556</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9991694352159468</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Produits traiteurs frais</t>
+          <t>Produits laitiers et desserts frais</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.9975103734439834</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.9987536352305775</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="5">
@@ -3466,16 +3428,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9983402489626556</v>
+        <v>0.9975103734439834</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9983402489626556</v>
+        <v>0.9975103734439834</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9983402489626556</v>
+        <v>0.9975103734439834</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9983402489626556</v>
+        <v>0.9975103734439834</v>
       </c>
     </row>
     <row r="6">
@@ -3488,10 +3450,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3327800829875519</v>
+        <v>0.3325034578146611</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3330564784053156</v>
+        <v>0.3329178784101925</v>
       </c>
       <c r="E6" t="n">
         <v>1205</v>
@@ -3507,10 +3469,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9983402489626556</v>
+        <v>0.9975103734439834</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9991694352159468</v>
+        <v>0.9987536352305774</v>
       </c>
       <c r="E7" t="n">
         <v>1205</v>
@@ -3527,7 +3489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3560,7 +3522,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Plats cuisines frais</t>
+          <t>Fromages</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3579,7 +3541,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Produits laitiers et desserts frais</t>
+          <t>Plats cuisines frais</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3598,76 +3560,95 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Produits traiteurs frais</t>
+          <t>Produits laitiers et desserts frais</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9658753709198813</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9826415094339622</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>Produits traiteurs frais</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9658753709198813</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9658753709198813</v>
+        <v>0.9688427299703264</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9658753709198813</v>
+        <v>0.9841748304446118</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9658753709198813</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>macro avg</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9688427299703264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3219584569732938</v>
+        <v>0.9688427299703264</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3275471698113208</v>
+        <v>0.9688427299703264</v>
       </c>
       <c r="E6" t="n">
-        <v>674</v>
+        <v>0.9688427299703264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2422106824925816</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.246043707611153</v>
+      </c>
+      <c r="E7" t="n">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>weighted avg</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9658753709198813</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9826415094339622</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9688427299703264</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9841748304446118</v>
+      </c>
+      <c r="E8" t="n">
         <v>674</v>
       </c>
     </row>
@@ -3715,7 +3696,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Aperitifs a croquer</t>
+          <t>Plats cuisines ambiants</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3779,10 +3760,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.967948717948718</v>
+        <v>0.9775641025641025</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9837133550488599</v>
+        <v>0.9886547811993517</v>
       </c>
       <c r="E5" t="n">
         <v>312</v>
@@ -3795,16 +3776,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.967948717948718</v>
+        <v>0.9775641025641025</v>
       </c>
       <c r="C6" t="n">
-        <v>0.967948717948718</v>
+        <v>0.9775641025641025</v>
       </c>
       <c r="D6" t="n">
-        <v>0.967948717948718</v>
+        <v>0.9775641025641025</v>
       </c>
       <c r="E6" t="n">
-        <v>0.967948717948718</v>
+        <v>0.9775641025641025</v>
       </c>
     </row>
     <row r="7">
@@ -3817,10 +3798,10 @@
         <v>0.25</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2419871794871795</v>
+        <v>0.2443910256410256</v>
       </c>
       <c r="D7" t="n">
-        <v>0.245928338762215</v>
+        <v>0.2471636952998379</v>
       </c>
       <c r="E7" t="n">
         <v>312</v>
@@ -3836,10 +3817,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.967948717948718</v>
+        <v>0.9775641025641025</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9837133550488599</v>
+        <v>0.9886547811993517</v>
       </c>
       <c r="E8" t="n">
         <v>312</v>
@@ -3856,7 +3837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3889,7 +3870,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Aperitifs a croquer</t>
+          <t>Bouillons et potages</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3908,7 +3889,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Boissons Rafraichissantes Sans Alcool</t>
+          <t>Plats cuisines ambiants</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3927,114 +3908,76 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Plats cuisines ambiants</t>
+          <t>Sauces chaudes</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.9891304347826088</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Sauces chaudes</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8655913978494624</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9279538904899135</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="E5" t="n">
-        <v>186</v>
+        <v>0.978494623655914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Sauces condimentaires</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.3261648745519714</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.3297101449275363</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>weighted avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8655913978494624</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8655913978494624</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8655913978494624</v>
+        <v>0.9891304347826086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8655913978494624</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1731182795698925</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1855907780979827</v>
-      </c>
-      <c r="E8" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>weighted avg</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8655913978494624</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9279538904899134</v>
-      </c>
-      <c r="E9" t="n">
         <v>186</v>
       </c>
     </row>
@@ -4146,10 +4089,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9830508474576271</v>
+        <v>0.9855072463768115</v>
       </c>
       <c r="E5" t="n">
         <v>210</v>
@@ -4162,16 +4105,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9714285714285714</v>
       </c>
     </row>
     <row r="7">
@@ -4184,10 +4127,10 @@
         <v>0.25</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2457627118644068</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="E7" t="n">
         <v>210</v>
@@ -4203,10 +4146,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9830508474576271</v>
+        <v>0.9855072463768114</v>
       </c>
       <c r="E8" t="n">
         <v>210</v>
@@ -4359,7 +4302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4399,10 +4342,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8831168831168831</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9379310344827586</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>77</v>
@@ -4411,114 +4354,57 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscuits et gateaux industriels</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Cereales pour le petit dejeuner</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Confiseries</t>
+          <t>weighted avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.8831168831168831</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8831168831168831</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8831168831168831</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8831168831168831</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2207792207792208</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2344827586206897</v>
-      </c>
-      <c r="E7" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>weighted avg</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8831168831168831</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9379310344827585</v>
-      </c>
-      <c r="E8" t="n">
         <v>77</v>
       </c>
     </row>
@@ -4533,7 +4419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4592,10 +4478,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.950207468879668</v>
+        <v>0.970954356846473</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9744680851063829</v>
+        <v>0.9852631578947367</v>
       </c>
       <c r="E3" t="n">
         <v>482</v>
@@ -4604,76 +4490,57 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Viennoiseries et desserts surgeles</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.970954356846473</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.970954356846473</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.970954356846473</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.970954356846473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.950207468879668</v>
+        <v>0.5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.950207468879668</v>
+        <v>0.4854771784232365</v>
       </c>
       <c r="D5" t="n">
-        <v>0.950207468879668</v>
+        <v>0.4926315789473684</v>
       </c>
       <c r="E5" t="n">
-        <v>0.950207468879668</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>macro avg</t>
+          <t>weighted avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3167358229598893</v>
+        <v>0.970954356846473</v>
       </c>
       <c r="D6" t="n">
-        <v>0.324822695035461</v>
+        <v>0.9852631578947367</v>
       </c>
       <c r="E6" t="n">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>weighted avg</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.950207468879668</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9744680851063829</v>
-      </c>
-      <c r="E7" t="n">
         <v>482</v>
       </c>
     </row>
@@ -4740,7 +4607,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Plats cuisines surgeles</t>
+          <t>Snacking surgele</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4843,7 +4710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4876,39 +4743,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Biscuits et gateaux industriels</t>
+          <t>Aliments infantiles de diversification</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9881305637982196</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9940298507462687</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Cereales pour le petit dejeuner</t>
+          <t>Biscuits et gateaux industriels</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.9940652818991098</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.9970238095238095</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="4">
@@ -4952,7 +4819,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Preparations pour desserts</t>
+          <t>Produits laitiers et desserts frais</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4971,76 +4838,57 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Produits laitiers et desserts frais</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.9940652818991098</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.9940652818991098</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.9940652818991098</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.9940652818991098</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9881305637982196</v>
+        <v>0.2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9881305637982196</v>
+        <v>0.198813056379822</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9881305637982196</v>
+        <v>0.1994047619047619</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9881305637982196</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>macro avg</t>
+          <t>weighted avg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1646884272997033</v>
+        <v>0.9940652818991098</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1656716417910448</v>
+        <v>0.9970238095238095</v>
       </c>
       <c r="E9" t="n">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>weighted avg</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9881305637982196</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9940298507462687</v>
-      </c>
-      <c r="E10" t="n">
         <v>1348</v>
       </c>
     </row>
@@ -5055,7 +4903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5095,10 +4943,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9479905437352246</v>
+        <v>0.966903073286052</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9733009708737864</v>
+        <v>0.9831730769230769</v>
       </c>
       <c r="E2" t="n">
         <v>423</v>
@@ -5107,7 +4955,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Fromages</t>
+          <t>Conserves de fruits</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5145,114 +4993,57 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Plats cuisines ambiants</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.966903073286052</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.966903073286052</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.966903073286052</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.966903073286052</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Produits laitiers et desserts frais</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.322301024428684</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.327724358974359</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Produits traiteurs frais</t>
+          <t>weighted avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.966903073286052</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.9831730769230768</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9479905437352246</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9479905437352246</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9479905437352246</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9479905437352246</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1579984239558708</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1622168284789644</v>
-      </c>
-      <c r="E9" t="n">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>weighted avg</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9479905437352246</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9733009708737864</v>
-      </c>
-      <c r="E10" t="n">
         <v>423</v>
       </c>
     </row>
@@ -5267,7 +5058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5300,7 +5091,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Aperitifs a croquer</t>
+          <t>Aliments infantiles de diversification</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5326,10 +5117,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8552188552188552</v>
+        <v>0.8720538720538721</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9219600725952813</v>
+        <v>0.9316546762589929</v>
       </c>
       <c r="E3" t="n">
         <v>297</v>
@@ -5414,57 +5205,76 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>Sauces condimentaires</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8552188552188552</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8552188552188552</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8552188552188552</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8552188552188552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>macro avg</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.8720538720538721</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1425364758698092</v>
+        <v>0.8720538720538721</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1536600120992136</v>
+        <v>0.8720538720538721</v>
       </c>
       <c r="E9" t="n">
-        <v>297</v>
+        <v>0.8720538720538721</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1245791245791246</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1330935251798561</v>
+      </c>
+      <c r="E10" t="n">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>weighted avg</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8552188552188552</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9219600725952813</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8720538720538721</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9316546762589928</v>
+      </c>
+      <c r="E11" t="n">
         <v>297</v>
       </c>
     </row>
@@ -5479,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5557,10 +5367,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9628378378378378</v>
+        <v>0.9831081081081081</v>
       </c>
       <c r="D4" t="n">
-        <v>0.981067125645439</v>
+        <v>0.9914821124361158</v>
       </c>
       <c r="E4" t="n">
         <v>296</v>
@@ -5569,7 +5379,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Chocolat et produits chocolates</t>
+          <t>Panification croustillante et moelleuse</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5588,95 +5398,57 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Confiseries</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.9831081081081081</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.9831081081081081</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.9831081081081081</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.9831081081081081</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Panification croustillante et moelleuse</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.245777027027027</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.247870528109029</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>weighted avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9628378378378378</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9628378378378378</v>
+        <v>0.9831081081081081</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9628378378378378</v>
+        <v>0.9914821124361158</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9628378378378378</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.160472972972973</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1635111876075732</v>
-      </c>
-      <c r="E9" t="n">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>weighted avg</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9628378378378378</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.981067125645439</v>
-      </c>
-      <c r="E10" t="n">
         <v>296</v>
       </c>
     </row>
@@ -5731,10 +5503,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.981203007518797</v>
+        <v>0.9887218045112782</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9905123339658444</v>
+        <v>0.9943289224952742</v>
       </c>
       <c r="E2" t="n">
         <v>532</v>
@@ -5785,16 +5557,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.981203007518797</v>
+        <v>0.9887218045112782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.981203007518797</v>
+        <v>0.9887218045112782</v>
       </c>
       <c r="D5" t="n">
-        <v>0.981203007518797</v>
+        <v>0.9887218045112782</v>
       </c>
       <c r="E5" t="n">
-        <v>0.981203007518797</v>
+        <v>0.9887218045112782</v>
       </c>
     </row>
     <row r="6">
@@ -5807,10 +5579,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3270676691729323</v>
+        <v>0.3295739348370927</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3301707779886148</v>
+        <v>0.3314429741650914</v>
       </c>
       <c r="E6" t="n">
         <v>532</v>
@@ -5826,10 +5598,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.981203007518797</v>
+        <v>0.9887218045112782</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9905123339658443</v>
+        <v>0.9943289224952742</v>
       </c>
       <c r="E7" t="n">
         <v>532</v>
@@ -5846,7 +5618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5879,7 +5651,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Biscuits et gateaux industriels</t>
+          <t>Aliments infantiles de diversification</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5898,7 +5670,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Cereales pour le petit dejeuner</t>
+          <t>Biscuits et gateaux industriels</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5917,95 +5689,133 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Chocolat et produits chocolates</t>
+          <t>Cereales pour le petit dejeuner</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9538461538461539</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9763779527559054</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Confiseries</t>
+          <t>Chocolat et produits chocolates</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.9384615384615385</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>Confiseries</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9538461538461539</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9538461538461539</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9538461538461539</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9538461538461539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>macro avg</t>
+          <t>Preparations pour desserts</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2384615384615385</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2440944881889764</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9384615384615385</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9384615384615385</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9384615384615385</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9384615384615385</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1564102564102564</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1613756613756614</v>
+      </c>
+      <c r="E9" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>weighted avg</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9538461538461539</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9763779527559054</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9384615384615385</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9682539682539683</v>
+      </c>
+      <c r="E10" t="n">
         <v>325</v>
       </c>
     </row>
